--- a/data/trans_bre/P73-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P73-Edad-trans_bre.xlsx
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 10,26</t>
+          <t>1,06; 9,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 12,86</t>
+          <t>3,37; 13,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,39; 16,07</t>
+          <t>5,91; 16,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,21; 116,01</t>
+          <t>6,4; 107,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,42; 150,12</t>
+          <t>25,62; 155,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>54,05; 217,31</t>
+          <t>48,22; 217,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 19,48</t>
+          <t>8,08; 18,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,28; 24,97</t>
+          <t>14,22; 25,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 11,97</t>
+          <t>0,81; 12,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,88; 38,73</t>
+          <t>14,45; 37,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,3; 55,97</t>
+          <t>28,18; 56,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 23,24</t>
+          <t>1,6; 23,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 8,2</t>
+          <t>-1,09; 7,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,23</t>
+          <t>0,98; 9,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 9,1</t>
+          <t>0,21; 9,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 10,76</t>
+          <t>-1,34; 9,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 11,73</t>
+          <t>1,23; 11,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 12,58</t>
+          <t>0,26; 12,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -1,74</t>
+          <t>-11,44; -1,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 4,27</t>
+          <t>-5,94; 3,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 6,2</t>
+          <t>-3,44; 6,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -2,07</t>
+          <t>-13,04; -2,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 5,49</t>
+          <t>-7,06; 4,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 8,75</t>
+          <t>-4,35; 8,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,65; -5,19</t>
+          <t>-16,07; -5,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,18; -2,46</t>
+          <t>-13,87; -2,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,57; -8,11</t>
+          <t>-19,8; -7,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,44; -6,09</t>
+          <t>-17,84; -6,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,97; -2,98</t>
+          <t>-15,73; -3,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-23,52; -9,82</t>
+          <t>-23,95; -9,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,61; -27,4</t>
+          <t>-37,71; -27,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,35; -22,75</t>
+          <t>-33,35; -22,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,41; -19,66</t>
+          <t>-30,12; -20,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,14; -35,51</t>
+          <t>-46,2; -35,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,62; -30,82</t>
+          <t>-42,57; -31,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,71; -27,8</t>
+          <t>-40,33; -28,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,26</t>
+          <t>-5,04; -0,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,33</t>
+          <t>-2,34; 2,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,92</t>
+          <t>-5,46; -0,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -0,35</t>
+          <t>-7,55; -0,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,66</t>
+          <t>-3,51; 3,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,67; -1,49</t>
+          <t>-8,45; -1,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P73-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P73-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,65</t>
+          <t>0,9; 9,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 13,1</t>
+          <t>3,08; 12,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,91; 16,06</t>
+          <t>5,92; 15,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,4; 107,11</t>
+          <t>5,83; 115,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,62; 155,82</t>
+          <t>23,06; 140,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>48,22; 217,05</t>
+          <t>50,67; 213,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,08; 18,92</t>
+          <t>8,69; 19,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,22; 25,25</t>
+          <t>14,42; 25,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 12,06</t>
+          <t>0,71; 11,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,45; 37,47</t>
+          <t>15,61; 38,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,18; 56,2</t>
+          <t>28,6; 56,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 23,68</t>
+          <t>1,23; 22,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 7,48</t>
+          <t>-0,61; 7,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,08</t>
+          <t>1,03; 9,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 9,33</t>
+          <t>0,16; 8,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 9,49</t>
+          <t>-0,74; 9,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 11,68</t>
+          <t>1,24; 11,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 12,77</t>
+          <t>0,19; 12,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,44; -1,65</t>
+          <t>-11,5; -1,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 3,55</t>
+          <t>-6,67; 3,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 6,16</t>
+          <t>-3,51; 6,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,04; -2,01</t>
+          <t>-13,1; -2,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 4,47</t>
+          <t>-7,85; 4,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 8,83</t>
+          <t>-4,58; 9,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,07; -5,02</t>
+          <t>-15,77; -5,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,87; -2,73</t>
+          <t>-12,93; -2,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,8; -7,62</t>
+          <t>-19,6; -8,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,84; -6,02</t>
+          <t>-17,64; -6,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,73; -3,43</t>
+          <t>-14,51; -2,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-23,95; -9,79</t>
+          <t>-23,79; -10,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,71; -27,47</t>
+          <t>-38,28; -27,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,35; -22,95</t>
+          <t>-33,69; -22,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,12; -20,07</t>
+          <t>-30,38; -20,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,2; -35,29</t>
+          <t>-46,53; -35,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,57; -31,41</t>
+          <t>-42,66; -30,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,33; -28,88</t>
+          <t>-40,52; -28,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,04; -0,4</t>
+          <t>-5,18; -0,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,14</t>
+          <t>-2,78; 2,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; -0,78</t>
+          <t>-5,39; -0,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,55; -0,59</t>
+          <t>-7,77; -0,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,35</t>
+          <t>-4,17; 3,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,45; -1,25</t>
+          <t>-8,3; -0,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P73-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P73-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,15 +539,13 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +567,17 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,27 +619,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>52,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>52,01%</t>
+          <t>73,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>73,68%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
           <t>119,18%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 9,98</t>
+          <t>0,98; 10,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 12,13</t>
+          <t>3,3; 12,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 15,53</t>
+          <t>6,39; 16,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,21; 116,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,83; 115,4</t>
+          <t>23,42; 150,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,06; 140,0</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>50,67; 213,68</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>54,05; 217,31</t>
         </is>
       </c>
     </row>
@@ -735,27 +699,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>41,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
           <t>11,62%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,69; 19,45</t>
+          <t>8,8; 19,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,42; 25,36</t>
+          <t>14,28; 24,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 11,9</t>
+          <t>0,48; 11,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,88; 38,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,61; 38,64</t>
+          <t>28,3; 55,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,6; 56,24</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 22,79</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>0,84; 23,24</t>
         </is>
       </c>
     </row>
@@ -835,27 +779,17 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
           <t>6,04%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 7,47</t>
+          <t>-0,95; 8,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 9,18</t>
+          <t>0,89; 9,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 8,76</t>
+          <t>-0,04; 9,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 10,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 9,67</t>
+          <t>1,07; 11,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 11,71</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 12,16</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-0,07; 12,58</t>
         </is>
       </c>
     </row>
@@ -935,27 +859,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,48%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
           <t>2,05%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -1,77</t>
+          <t>-11,5; -1,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 3,56</t>
+          <t>-5,86; 4,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 6,57</t>
+          <t>-3,45; 6,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,02; -2,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,1; -2,23</t>
+          <t>-6,98; 5,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 4,5</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-4,58; 9,29</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-4,51; 8,75</t>
         </is>
       </c>
     </row>
@@ -1035,27 +939,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,75%</t>
+          <t>-9,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,21%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
           <t>-17,28%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,77; -5,22</t>
+          <t>-15,65; -5,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,93; -2,56</t>
+          <t>-13,18; -2,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,6; -8,37</t>
+          <t>-19,57; -8,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,44; -6,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,64; -6,2</t>
+          <t>-14,97; -2,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -2,99</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-23,79; -10,56</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-23,52; -9,82</t>
         </is>
       </c>
     </row>
@@ -1135,27 +1019,17 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-41,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-41,12%</t>
+          <t>-37,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-37,01%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
           <t>-34,78%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,28; -27,76</t>
+          <t>-37,61; -27,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,69; -22,23</t>
+          <t>-33,35; -22,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,38; -20,06</t>
+          <t>-30,41; -19,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,14; -35,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,53; -35,86</t>
+          <t>-42,62; -30,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,66; -30,4</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-40,52; -28,48</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-40,71; -27,8</t>
         </is>
       </c>
     </row>
@@ -1235,27 +1099,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,34%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,34%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
           <t>-4,93%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,18; -0,51</t>
+          <t>-5,14; -0,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 2,06</t>
+          <t>-2,45; 2,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; -0,63</t>
+          <t>-5,6; -0,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,63; -0,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -0,8</t>
+          <t>-3,69; 3,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 3,23</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-8,3; -0,99</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-8,67; -1,49</t>
         </is>
       </c>
     </row>
@@ -1316,13 +1160,13 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P73-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P73-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-32,83</t>
+          <t>-27,19</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-28,14</t>
+          <t>-22,95</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-25,25</t>
+          <t>-19,14</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-41,12%</t>
+          <t>-31,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-37,01%</t>
+          <t>-27,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-34,78%</t>
+          <t>-24,36%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,61; -27,4</t>
+          <t>-33,3; -20,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,35; -22,75</t>
+          <t>-29,64; -15,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,41; -19,66</t>
+          <t>-25,29; -12,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,14; -35,51</t>
+          <t>-37,29; -23,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,62; -30,82</t>
+          <t>-35,02; -19,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,71; -27,8</t>
+          <t>-31,49; -16,22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-35,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-30,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-28,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,34%</t>
+          <t>-51,78%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>-45,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>-44,56%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-44,38; -27,71</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-38,21; -21,95</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-36,3; -20,97</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-60,62; -42,42</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-53,28; -34,05</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-53,55; -34,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-2,84</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-3,13</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-4,34%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-0,17%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-4,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-5,14; -0,26</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-2,45; 2,33</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-5,6; -0,92</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>-7,63; -0,35</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-3,69; 3,66</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-8,67; -1,49</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P73-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P73-Edad-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 10,26</t>
+          <t>1,58; 9,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 12,86</t>
+          <t>3,4; 12,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,39; 16,07</t>
+          <t>6,1; 15,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,21; 116,01</t>
+          <t>12,29; 116,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,42; 150,12</t>
+          <t>25,85; 148,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>54,05; 217,31</t>
+          <t>54,42; 224,04</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,8; 19,48</t>
+          <t>8,78; 19,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,28; 24,97</t>
+          <t>14,2; 25,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 11,97</t>
+          <t>0,96; 12,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,88; 38,73</t>
+          <t>15,92; 39,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,3; 55,97</t>
+          <t>28,26; 58,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 23,24</t>
+          <t>1,61; 24,07</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 8,2</t>
+          <t>-0,87; 7,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,23</t>
+          <t>1,14; 9,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 9,1</t>
+          <t>0,32; 9,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 10,76</t>
+          <t>-1,05; 9,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 11,73</t>
+          <t>1,5; 12,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 12,58</t>
+          <t>0,43; 12,89</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,5; -1,74</t>
+          <t>-11,12; -1,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 4,27</t>
+          <t>-6,36; 3,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 6,2</t>
+          <t>-3,32; 6,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -2,07</t>
+          <t>-12,68; -1,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 5,49</t>
+          <t>-7,51; 4,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 8,75</t>
+          <t>-4,4; 8,97</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,65; -5,19</t>
+          <t>-15,39; -4,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,18; -2,46</t>
+          <t>-12,76; -2,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,57; -8,11</t>
+          <t>-19,66; -8,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,44; -6,09</t>
+          <t>-17,15; -5,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,97; -2,98</t>
+          <t>-14,46; -2,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,52; -9,82</t>
+          <t>-23,69; -10,3</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,3; -20,28</t>
+          <t>-33,06; -20,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,64; -15,04</t>
+          <t>-29,63; -15,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,29; -12,21</t>
+          <t>-25,78; -12,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,29; -23,87</t>
+          <t>-37,0; -24,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,02; -19,25</t>
+          <t>-35,1; -20,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,49; -16,22</t>
+          <t>-31,75; -15,87</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-44,38; -27,71</t>
+          <t>-44,51; -27,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-38,21; -21,95</t>
+          <t>-38,83; -22,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-36,3; -20,97</t>
+          <t>-36,16; -21,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-60,62; -42,42</t>
+          <t>-60,89; -42,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-53,28; -34,05</t>
+          <t>-53,33; -35,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-53,55; -34,38</t>
+          <t>-53,67; -35,54</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,14; -0,26</t>
+          <t>-5,12; -0,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,33</t>
+          <t>-2,36; 2,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,92</t>
+          <t>-5,57; -0,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,63; -0,35</t>
+          <t>-7,69; -0,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 3,66</t>
+          <t>-3,57; 3,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,67; -1,49</t>
+          <t>-8,6; -1,57</t>
         </is>
       </c>
     </row>
